--- a/최종/2019_10_01/YesNoin_기능리스트_0930.xlsx
+++ b/최종/2019_10_01/YesNoin_기능리스트_0930.xlsx
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="420">
   <si>
     <t>요구사항 식별자</t>
   </si>
@@ -1685,6 +1685,10 @@
   </si>
   <si>
     <t>SRS-118</t>
+  </si>
+  <si>
+    <t>매장식사 버튼과 포장 버튼을 출력 및 클릭 이벤트(ㅇㅅㅇ)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2064,22 +2068,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2094,6 +2113,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2102,24 +2124,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2450,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2496,14 +2500,14 @@
       <c r="A2" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="37" t="s">
         <v>286</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>271</v>
+        <v>419</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>9</v>
@@ -2522,7 +2526,7 @@
       <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
@@ -2546,7 +2550,7 @@
       <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
@@ -2570,7 +2574,7 @@
       <c r="A5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
@@ -2594,7 +2598,7 @@
       <c r="A6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
@@ -2618,7 +2622,7 @@
       <c r="A7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
@@ -2642,7 +2646,7 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
@@ -2666,7 +2670,7 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="8" t="s">
         <v>327</v>
       </c>
@@ -2690,7 +2694,7 @@
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="8" t="s">
         <v>296</v>
       </c>
@@ -2714,7 +2718,7 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="8" t="s">
         <v>297</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="26" t="s">
         <v>299</v>
       </c>
@@ -2762,7 +2766,7 @@
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="38" t="s">
         <v>326</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2788,7 +2792,7 @@
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
@@ -2812,7 +2816,7 @@
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
       </c>
@@ -2836,7 +2840,7 @@
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
@@ -2860,7 +2864,7 @@
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="8" t="s">
         <v>65</v>
       </c>
@@ -2884,7 +2888,7 @@
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="8" t="s">
         <v>281</v>
       </c>
@@ -2908,7 +2912,7 @@
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="8" t="s">
         <v>69</v>
       </c>
@@ -2932,7 +2936,7 @@
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="8" t="s">
         <v>330</v>
       </c>
@@ -2956,7 +2960,7 @@
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="8" t="s">
         <v>331</v>
       </c>
@@ -2980,7 +2984,7 @@
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="8" t="s">
         <v>71</v>
       </c>
@@ -3004,7 +3008,7 @@
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="8" t="s">
         <v>73</v>
       </c>
@@ -3028,7 +3032,7 @@
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="8" t="s">
         <v>75</v>
       </c>
@@ -3052,7 +3056,7 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="8" t="s">
         <v>77</v>
       </c>
@@ -3076,7 +3080,7 @@
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="8" t="s">
         <v>334</v>
       </c>
@@ -3100,7 +3104,7 @@
       <c r="A27" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="8" t="s">
         <v>335</v>
       </c>
@@ -3124,7 +3128,7 @@
       <c r="A28" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="8" t="s">
         <v>83</v>
       </c>
@@ -3148,7 +3152,7 @@
       <c r="A29" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
@@ -3172,7 +3176,7 @@
       <c r="A30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="8" t="s">
         <v>89</v>
       </c>
@@ -3196,7 +3200,7 @@
       <c r="A31" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="8" t="s">
         <v>409</v>
       </c>
@@ -3220,7 +3224,7 @@
       <c r="A32" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="8" t="s">
         <v>410</v>
       </c>
@@ -3244,7 +3248,7 @@
       <c r="A33" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="8" t="s">
         <v>277</v>
       </c>
@@ -3268,7 +3272,7 @@
       <c r="A34" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="8" t="s">
         <v>283</v>
       </c>
@@ -3292,7 +3296,7 @@
       <c r="A35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="8" t="s">
         <v>91</v>
       </c>
@@ -3316,7 +3320,7 @@
       <c r="A36" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="8" t="s">
         <v>93</v>
       </c>
@@ -3340,7 +3344,7 @@
       <c r="A37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="8" t="s">
         <v>95</v>
       </c>
@@ -3364,7 +3368,7 @@
       <c r="A38" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="8" t="s">
         <v>97</v>
       </c>
@@ -3388,7 +3392,7 @@
       <c r="A39" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="8" t="s">
         <v>99</v>
       </c>
@@ -3412,7 +3416,7 @@
       <c r="A40" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="8" t="s">
         <v>101</v>
       </c>
@@ -3436,7 +3440,7 @@
       <c r="A41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="8" t="s">
         <v>103</v>
       </c>
@@ -3460,7 +3464,7 @@
       <c r="A42" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="26" t="s">
         <v>339</v>
       </c>
@@ -3484,7 +3488,7 @@
       <c r="A43" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="38" t="s">
         <v>287</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -3508,7 +3512,7 @@
       <c r="A44" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="8" t="s">
         <v>106</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="A45" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="8" t="s">
         <v>330</v>
       </c>
@@ -3554,7 +3558,7 @@
       <c r="A46" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="8" t="s">
         <v>331</v>
       </c>
@@ -3578,7 +3582,7 @@
       <c r="A47" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="53"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="8" t="s">
         <v>108</v>
       </c>
@@ -3600,7 +3604,7 @@
       <c r="A48" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="8" t="s">
         <v>110</v>
       </c>
@@ -3622,7 +3626,7 @@
       <c r="A49" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="53"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="8" t="s">
         <v>112</v>
       </c>
@@ -3644,7 +3648,7 @@
       <c r="A50" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="53"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="8" t="s">
         <v>115</v>
       </c>
@@ -3666,7 +3670,7 @@
       <c r="A51" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="53"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="8" t="s">
         <v>117</v>
       </c>
@@ -3688,7 +3692,7 @@
       <c r="A52" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="53"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="8" t="s">
         <v>119</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="A53" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="53"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="8" t="s">
         <v>121</v>
       </c>
@@ -3732,7 +3736,7 @@
       <c r="A54" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="8" t="s">
         <v>123</v>
       </c>
@@ -3754,7 +3758,7 @@
       <c r="A55" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="8" t="s">
         <v>125</v>
       </c>
@@ -3776,7 +3780,7 @@
       <c r="A56" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="26" t="s">
         <v>127</v>
       </c>
@@ -3798,7 +3802,7 @@
       <c r="A57" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="38" t="s">
         <v>288</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -3822,7 +3826,7 @@
       <c r="A58" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="8" t="s">
         <v>177</v>
       </c>
@@ -3844,7 +3848,7 @@
       <c r="A59" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="8" t="s">
         <v>179</v>
       </c>
@@ -3866,7 +3870,7 @@
       <c r="A60" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="8" t="s">
         <v>300</v>
       </c>
@@ -3888,7 +3892,7 @@
       <c r="A61" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="8" t="s">
         <v>181</v>
       </c>
@@ -3910,7 +3914,7 @@
       <c r="A62" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="19" t="s">
         <v>341</v>
       </c>
@@ -3932,7 +3936,7 @@
       <c r="A63" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="53"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="19" t="s">
         <v>342</v>
       </c>
@@ -3954,7 +3958,7 @@
       <c r="A64" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="53"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="19" t="s">
         <v>343</v>
       </c>
@@ -3976,7 +3980,7 @@
       <c r="A65" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="19" t="s">
         <v>248</v>
       </c>
@@ -3998,7 +4002,7 @@
       <c r="A66" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="53"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="32" t="s">
         <v>344</v>
       </c>
@@ -4020,7 +4024,7 @@
       <c r="A67" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="38" t="s">
         <v>383</v>
       </c>
       <c r="C67" s="30" t="s">
@@ -4044,7 +4048,7 @@
       <c r="A68" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="8" t="s">
         <v>415</v>
       </c>
@@ -4066,7 +4070,7 @@
       <c r="A69" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="7" t="s">
         <v>233</v>
       </c>
@@ -4088,7 +4092,7 @@
       <c r="A70" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="7" t="s">
         <v>351</v>
       </c>
@@ -4110,7 +4114,7 @@
       <c r="A71" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="8" t="s">
         <v>348</v>
       </c>
@@ -4132,7 +4136,7 @@
       <c r="A72" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="7" t="s">
         <v>235</v>
       </c>
@@ -4154,7 +4158,7 @@
       <c r="A73" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="8" t="s">
         <v>350</v>
       </c>
@@ -4176,7 +4180,7 @@
       <c r="A74" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="8" t="s">
         <v>303</v>
       </c>
@@ -4198,7 +4202,7 @@
       <c r="A75" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="B75" s="54"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="26" t="s">
         <v>309</v>
       </c>
@@ -4220,7 +4224,7 @@
       <c r="A76" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="38" t="s">
         <v>325</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -4244,7 +4248,7 @@
       <c r="A77" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="55"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="8" t="s">
         <v>355</v>
       </c>
@@ -4266,7 +4270,7 @@
       <c r="A78" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B78" s="55"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="8" t="s">
         <v>240</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="A79" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="55"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="8" t="s">
         <v>357</v>
       </c>
@@ -4310,7 +4314,7 @@
       <c r="A80" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B80" s="55"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="8" t="s">
         <v>359</v>
       </c>
@@ -4332,7 +4336,7 @@
       <c r="A81" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B81" s="55"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="8" t="s">
         <v>361</v>
       </c>
@@ -4354,7 +4358,7 @@
       <c r="A82" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B82" s="55"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="8" t="s">
         <v>363</v>
       </c>
@@ -4376,7 +4380,7 @@
       <c r="A83" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="55"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="8" t="s">
         <v>304</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="A84" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="55"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="8" t="s">
         <v>307</v>
       </c>
@@ -4420,7 +4424,7 @@
       <c r="A85" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="55"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="8" t="s">
         <v>306</v>
       </c>
@@ -4442,7 +4446,7 @@
       <c r="A86" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B86" s="55"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="26" t="s">
         <v>309</v>
       </c>
@@ -4464,7 +4468,7 @@
       <c r="A87" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="38" t="s">
         <v>384</v>
       </c>
       <c r="C87" s="15" t="s">
@@ -4488,7 +4492,7 @@
       <c r="A88" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B88" s="54"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="8" t="s">
         <v>355</v>
       </c>
@@ -4510,7 +4514,7 @@
       <c r="A89" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="54"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="8" t="s">
         <v>240</v>
       </c>
@@ -4532,7 +4536,7 @@
       <c r="A90" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B90" s="54"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="8" t="s">
         <v>368</v>
       </c>
@@ -4554,7 +4558,7 @@
       <c r="A91" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="8" t="s">
         <v>243</v>
       </c>
@@ -4576,7 +4580,7 @@
       <c r="A92" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B92" s="54"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="8" t="s">
         <v>367</v>
       </c>
@@ -4598,7 +4602,7 @@
       <c r="A93" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B93" s="54"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="8" t="s">
         <v>370</v>
       </c>
@@ -4620,7 +4624,7 @@
       <c r="A94" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B94" s="54"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="8" t="s">
         <v>372</v>
       </c>
@@ -4642,7 +4646,7 @@
       <c r="A95" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B95" s="54"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="8" t="s">
         <v>245</v>
       </c>
@@ -4664,7 +4668,7 @@
       <c r="A96" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="B96" s="54"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="26" t="s">
         <v>309</v>
       </c>
@@ -4686,7 +4690,7 @@
       <c r="A97" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="38" t="s">
         <v>289</v>
       </c>
       <c r="C97" s="34" t="s">
@@ -4710,7 +4714,7 @@
       <c r="A98" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="54"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="19" t="s">
         <v>274</v>
       </c>
@@ -4732,7 +4736,7 @@
       <c r="A99" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B99" s="54"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="8" t="s">
         <v>215</v>
       </c>
@@ -4754,7 +4758,7 @@
       <c r="A100" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B100" s="54"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="8" t="s">
         <v>217</v>
       </c>
@@ -4776,7 +4780,7 @@
       <c r="A101" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B101" s="54"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="8" t="s">
         <v>219</v>
       </c>
@@ -4798,7 +4802,7 @@
       <c r="A102" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B102" s="54"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="8" t="s">
         <v>386</v>
       </c>
@@ -4820,7 +4824,7 @@
       <c r="A103" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B103" s="54"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="8" t="s">
         <v>221</v>
       </c>
@@ -4842,7 +4846,7 @@
       <c r="A104" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B104" s="54"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="8" t="s">
         <v>389</v>
       </c>
@@ -4864,7 +4868,7 @@
       <c r="A105" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B105" s="54"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="8" t="s">
         <v>223</v>
       </c>
@@ -4886,7 +4890,7 @@
       <c r="A106" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="B106" s="54"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="19" t="s">
         <v>248</v>
       </c>
@@ -4908,7 +4912,7 @@
       <c r="A107" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B107" s="54"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="8" t="s">
         <v>392</v>
       </c>
@@ -4930,7 +4934,7 @@
       <c r="A108" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B108" s="54"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="8" t="s">
         <v>393</v>
       </c>
@@ -4952,7 +4956,7 @@
       <c r="A109" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="B109" s="54"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="26" t="s">
         <v>388</v>
       </c>
@@ -4974,7 +4978,7 @@
       <c r="A110" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="41" t="s">
         <v>290</v>
       </c>
       <c r="C110" s="15" t="s">
@@ -4998,7 +5002,7 @@
       <c r="A111" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B111" s="50"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="8" t="s">
         <v>192</v>
       </c>
@@ -5021,7 +5025,7 @@
       <c r="A112" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B112" s="50"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="8" t="s">
         <v>194</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="A113" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B113" s="50"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="8" t="s">
         <v>196</v>
       </c>
@@ -5067,7 +5071,7 @@
       <c r="A114" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B114" s="50"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="8" t="s">
         <v>198</v>
       </c>
@@ -5089,7 +5093,7 @@
       <c r="A115" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B115" s="50"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="8" t="s">
         <v>200</v>
       </c>
@@ -5111,7 +5115,7 @@
       <c r="A116" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B116" s="50"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="8" t="s">
         <v>202</v>
       </c>
@@ -5133,7 +5137,7 @@
       <c r="A117" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B117" s="50"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="8" t="s">
         <v>397</v>
       </c>
@@ -5155,7 +5159,7 @@
       <c r="A118" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B118" s="50"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="8" t="s">
         <v>204</v>
       </c>
@@ -5177,7 +5181,7 @@
       <c r="A119" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="B119" s="51"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="26" t="s">
         <v>208</v>
       </c>
@@ -5199,15 +5203,15 @@
   </sheetData>
   <autoFilter ref="G1:H1"/>
   <mergeCells count="9">
+    <mergeCell ref="B76:B86"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="B97:B109"/>
+    <mergeCell ref="B110:B119"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B42"/>
     <mergeCell ref="B57:B66"/>
     <mergeCell ref="B43:B56"/>
     <mergeCell ref="B67:B75"/>
-    <mergeCell ref="B76:B86"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="B97:B109"/>
-    <mergeCell ref="B110:B119"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5263,7 +5267,7 @@
       <c r="A2" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5289,7 +5293,7 @@
       <c r="A3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
@@ -5313,7 +5317,7 @@
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
@@ -5337,7 +5341,7 @@
       <c r="A5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
@@ -5353,7 +5357,7 @@
       <c r="A6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
@@ -5369,7 +5373,7 @@
       <c r="A7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
@@ -5385,7 +5389,7 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
@@ -5401,7 +5405,7 @@
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
@@ -5417,7 +5421,7 @@
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="8" t="s">
         <v>50</v>
       </c>
@@ -5433,7 +5437,7 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
@@ -5449,7 +5453,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -5467,7 +5471,7 @@
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5483,7 +5487,7 @@
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="8" t="s">
         <v>63</v>
       </c>
@@ -5499,7 +5503,7 @@
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="8" t="s">
         <v>57</v>
       </c>
@@ -5515,7 +5519,7 @@
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="8" t="s">
         <v>65</v>
       </c>
@@ -5531,7 +5535,7 @@
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="8" t="s">
         <v>67</v>
       </c>
@@ -5547,7 +5551,7 @@
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="8" t="s">
         <v>69</v>
       </c>
@@ -5563,7 +5567,7 @@
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="8" t="s">
         <v>71</v>
       </c>
@@ -5579,7 +5583,7 @@
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="8" t="s">
         <v>73</v>
       </c>
@@ -5595,7 +5599,7 @@
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
@@ -5611,7 +5615,7 @@
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="8" t="s">
         <v>77</v>
       </c>
@@ -5627,7 +5631,7 @@
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="8" t="s">
         <v>79</v>
       </c>
@@ -5643,7 +5647,7 @@
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="8" t="s">
         <v>81</v>
       </c>
@@ -5659,7 +5663,7 @@
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="8" t="s">
         <v>83</v>
       </c>
@@ -5675,7 +5679,7 @@
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="8" t="s">
         <v>85</v>
       </c>
@@ -5691,7 +5695,7 @@
       <c r="A27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="8" t="s">
         <v>87</v>
       </c>
@@ -5707,7 +5711,7 @@
       <c r="A28" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="8" t="s">
         <v>89</v>
       </c>
@@ -5723,7 +5727,7 @@
       <c r="A29" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="8" t="s">
         <v>90</v>
       </c>
@@ -5739,7 +5743,7 @@
       <c r="A30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="8" t="s">
         <v>91</v>
       </c>
@@ -5755,7 +5759,7 @@
       <c r="A31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="8" t="s">
         <v>93</v>
       </c>
@@ -5771,7 +5775,7 @@
       <c r="A32" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="8" t="s">
         <v>95</v>
       </c>
@@ -5787,7 +5791,7 @@
       <c r="A33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="8" t="s">
         <v>97</v>
       </c>
@@ -5803,7 +5807,7 @@
       <c r="A34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="8" t="s">
         <v>99</v>
       </c>
@@ -5819,7 +5823,7 @@
       <c r="A35" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8" t="s">
         <v>101</v>
       </c>
@@ -5835,7 +5839,7 @@
       <c r="A36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="8" t="s">
         <v>103</v>
       </c>
@@ -5851,7 +5855,7 @@
       <c r="A37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="44" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -5869,7 +5873,7 @@
       <c r="A38" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="8" t="s">
         <v>106</v>
       </c>
@@ -5885,7 +5889,7 @@
       <c r="A39" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="8" t="s">
         <v>108</v>
       </c>
@@ -5901,7 +5905,7 @@
       <c r="A40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="8" t="s">
         <v>110</v>
       </c>
@@ -5917,7 +5921,7 @@
       <c r="A41" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="8" t="s">
         <v>112</v>
       </c>
@@ -5933,7 +5937,7 @@
       <c r="A42" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="8" t="s">
         <v>113</v>
       </c>
@@ -5949,7 +5953,7 @@
       <c r="A43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="8" t="s">
         <v>115</v>
       </c>
@@ -5965,7 +5969,7 @@
       <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="8" t="s">
         <v>117</v>
       </c>
@@ -5981,7 +5985,7 @@
       <c r="A45" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="8" t="s">
         <v>119</v>
       </c>
@@ -5997,7 +6001,7 @@
       <c r="A46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="8" t="s">
         <v>121</v>
       </c>
@@ -6013,7 +6017,7 @@
       <c r="A47" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="8" t="s">
         <v>123</v>
       </c>
@@ -6029,7 +6033,7 @@
       <c r="A48" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="8" t="s">
         <v>125</v>
       </c>
@@ -6045,7 +6049,7 @@
       <c r="A49" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="42"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="8" t="s">
         <v>127</v>
       </c>
@@ -6061,7 +6065,7 @@
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="44" t="s">
         <v>185</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -6079,7 +6083,7 @@
       <c r="A51" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="8" t="s">
         <v>177</v>
       </c>
@@ -6095,7 +6099,7 @@
       <c r="A52" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="8" t="s">
         <v>179</v>
       </c>
@@ -6111,7 +6115,7 @@
       <c r="A53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="8" t="s">
         <v>181</v>
       </c>
@@ -6127,7 +6131,7 @@
       <c r="A54" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="41"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="8" t="s">
         <v>183</v>
       </c>
@@ -6143,7 +6147,7 @@
       <c r="A55" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="44" t="s">
         <v>189</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -6161,7 +6165,7 @@
       <c r="A56" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="8" t="s">
         <v>192</v>
       </c>
@@ -6177,7 +6181,7 @@
       <c r="A57" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="8" t="s">
         <v>194</v>
       </c>
@@ -6193,7 +6197,7 @@
       <c r="A58" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="8" t="s">
         <v>196</v>
       </c>
@@ -6209,7 +6213,7 @@
       <c r="A59" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="8" t="s">
         <v>198</v>
       </c>
@@ -6225,7 +6229,7 @@
       <c r="A60" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="38"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="8" t="s">
         <v>200</v>
       </c>
@@ -6241,7 +6245,7 @@
       <c r="A61" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="14" t="s">
         <v>202</v>
       </c>
@@ -6257,7 +6261,7 @@
       <c r="A62" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="8" t="s">
         <v>204</v>
       </c>
@@ -6273,7 +6277,7 @@
       <c r="A63" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="8" t="s">
         <v>206</v>
       </c>
@@ -6289,7 +6293,7 @@
       <c r="A64" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="8" t="s">
         <v>208</v>
       </c>
@@ -6305,7 +6309,7 @@
       <c r="A65" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="8" t="s">
         <v>210</v>
       </c>
@@ -6321,7 +6325,7 @@
       <c r="A66" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="42"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="8" t="s">
         <v>212</v>
       </c>
@@ -6337,7 +6341,7 @@
       <c r="A67" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="44" t="s">
         <v>214</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -6355,7 +6359,7 @@
       <c r="A68" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="38"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="8" t="s">
         <v>217</v>
       </c>
@@ -6371,7 +6375,7 @@
       <c r="A69" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="8" t="s">
         <v>219</v>
       </c>
@@ -6387,7 +6391,7 @@
       <c r="A70" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="8" t="s">
         <v>221</v>
       </c>
@@ -6403,7 +6407,7 @@
       <c r="A71" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="38"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="8" t="s">
         <v>223</v>
       </c>
@@ -6419,7 +6423,7 @@
       <c r="A72" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B72" s="42"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="8" t="s">
         <v>225</v>
       </c>
@@ -6464,7 +6468,7 @@
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="51" t="s">
         <v>280</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -6488,7 +6492,7 @@
       <c r="A2" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
@@ -6510,7 +6514,7 @@
       <c r="A3" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
@@ -6532,7 +6536,7 @@
       <c r="A4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
@@ -6554,7 +6558,7 @@
       <c r="A5" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
@@ -6576,7 +6580,7 @@
       <c r="A6" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
@@ -6598,7 +6602,7 @@
       <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -6620,7 +6624,7 @@
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
@@ -6639,7 +6643,7 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="54" t="s">
         <v>282</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -6659,7 +6663,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="8" t="s">
         <v>55</v>
       </c>
@@ -6677,7 +6681,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="49"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="8" t="s">
         <v>63</v>
       </c>
@@ -6695,7 +6699,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="49"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
@@ -6713,7 +6717,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="8" t="s">
         <v>65</v>
       </c>
@@ -6731,7 +6735,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="49"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="8" t="s">
         <v>281</v>
       </c>
@@ -6749,7 +6753,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="8" t="s">
         <v>69</v>
       </c>
@@ -6767,7 +6771,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="8" t="s">
         <v>71</v>
       </c>
@@ -6785,7 +6789,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="49"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="8" t="s">
         <v>73</v>
       </c>
@@ -6803,7 +6807,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="8" t="s">
         <v>75</v>
       </c>
@@ -6821,7 +6825,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="8" t="s">
         <v>77</v>
       </c>
@@ -6839,7 +6843,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="8" t="s">
         <v>79</v>
       </c>
@@ -6857,7 +6861,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
@@ -6875,7 +6879,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="8" t="s">
         <v>83</v>
       </c>
@@ -6893,7 +6897,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="8" t="s">
         <v>85</v>
       </c>
@@ -6911,7 +6915,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="8" t="s">
         <v>87</v>
       </c>
@@ -6929,7 +6933,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="8" t="s">
         <v>89</v>
       </c>
@@ -6947,7 +6951,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="8" t="s">
         <v>90</v>
       </c>
@@ -6965,7 +6969,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="8" t="s">
         <v>91</v>
       </c>
@@ -6983,7 +6987,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="8" t="s">
         <v>93</v>
       </c>
@@ -7001,7 +7005,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="49"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="8" t="s">
         <v>95</v>
       </c>
@@ -7019,7 +7023,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="8" t="s">
         <v>97</v>
       </c>
@@ -7037,7 +7041,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="8" t="s">
         <v>99</v>
       </c>
@@ -7055,7 +7059,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="8" t="s">
         <v>101</v>
       </c>
@@ -7073,7 +7077,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="8" t="s">
         <v>103</v>
       </c>
@@ -7091,10 +7095,10 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="49"/>
+      <c r="B34" s="55"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="49"/>
+      <c r="B35" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/최종/2019_10_01/YesNoin_기능리스트_0930.xlsx
+++ b/최종/2019_10_01/YesNoin_기능리스트_0930.xlsx
@@ -1687,7 +1687,7 @@
     <t>SRS-118</t>
   </si>
   <si>
-    <t>매장식사 버튼과 포장 버튼을 출력 및 클릭 이벤트(ㅇㅅㅇ)</t>
+    <t>매장식사 버튼과 포장 버튼을 출력 및 클릭 이벤트</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2068,17 +2068,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2087,6 +2084,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2500,7 +2500,7 @@
       <c r="A2" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="43" t="s">
         <v>286</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2526,7 +2526,7 @@
       <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="7" t="s">
         <v>38</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="A5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="A6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="A7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="8" t="s">
         <v>327</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="8" t="s">
         <v>296</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="8" t="s">
         <v>297</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="26" t="s">
         <v>299</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>326</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2792,7 +2792,7 @@
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="8" t="s">
         <v>63</v>
       </c>
@@ -2840,7 +2840,7 @@
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="8" t="s">
         <v>57</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="8" t="s">
         <v>65</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="8" t="s">
         <v>281</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="8" t="s">
         <v>69</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="8" t="s">
         <v>330</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
         <v>331</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="8" t="s">
         <v>71</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8" t="s">
         <v>73</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="8" t="s">
         <v>75</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="8" t="s">
         <v>77</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="8" t="s">
         <v>334</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="A27" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="8" t="s">
         <v>335</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="A28" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
         <v>83</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="A29" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="A30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="8" t="s">
         <v>89</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="A31" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
         <v>409</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="A32" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="8" t="s">
         <v>410</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="A33" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="8" t="s">
         <v>277</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="A34" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="8" t="s">
         <v>283</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="A35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="8" t="s">
         <v>91</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="A36" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="8" t="s">
         <v>93</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="A37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="8" t="s">
         <v>95</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="A38" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="8" t="s">
         <v>97</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="A39" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="8" t="s">
         <v>99</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="A40" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="8" t="s">
         <v>101</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="A41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="8" t="s">
         <v>103</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="A42" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="26" t="s">
         <v>339</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="A43" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>287</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -3512,7 +3512,7 @@
       <c r="A44" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="8" t="s">
         <v>106</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="A45" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="8" t="s">
         <v>330</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="A46" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="8" t="s">
         <v>331</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="A47" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="8" t="s">
         <v>108</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="A48" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="8" t="s">
         <v>110</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="A49" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="8" t="s">
         <v>112</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="A50" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="8" t="s">
         <v>115</v>
       </c>
@@ -3670,7 +3670,7 @@
       <c r="A51" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="8" t="s">
         <v>117</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="A52" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="8" t="s">
         <v>119</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="A53" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="8" t="s">
         <v>121</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="A54" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="8" t="s">
         <v>123</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="A57" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>288</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -3826,7 +3826,7 @@
       <c r="A58" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="8" t="s">
         <v>177</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="A59" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="8" t="s">
         <v>179</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="A60" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="38"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="8" t="s">
         <v>300</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="A61" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="8" t="s">
         <v>181</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="A62" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="19" t="s">
         <v>341</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="A63" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="19" t="s">
         <v>342</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="A64" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="19" t="s">
         <v>343</v>
       </c>
@@ -3980,7 +3980,7 @@
       <c r="A65" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="19" t="s">
         <v>248</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="A66" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="38"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="32" t="s">
         <v>344</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="A67" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>383</v>
       </c>
       <c r="C67" s="30" t="s">
@@ -4048,7 +4048,7 @@
       <c r="A68" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="38"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="8" t="s">
         <v>415</v>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="A69" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="7" t="s">
         <v>233</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="A70" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="7" t="s">
         <v>351</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="A71" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="38"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="8" t="s">
         <v>348</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="A72" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="7" t="s">
         <v>235</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="A73" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B73" s="38"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="8" t="s">
         <v>350</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="A74" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B74" s="38"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="8" t="s">
         <v>303</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="A76" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>325</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -4248,7 +4248,7 @@
       <c r="A77" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="40"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="8" t="s">
         <v>355</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="A78" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="8" t="s">
         <v>240</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="A79" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="8" t="s">
         <v>357</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="A80" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="8" t="s">
         <v>359</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="A81" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="8" t="s">
         <v>361</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="A82" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="8" t="s">
         <v>363</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="A83" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="8" t="s">
         <v>304</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="A84" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="40"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="8" t="s">
         <v>307</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="A85" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="40"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="8" t="s">
         <v>306</v>
       </c>
@@ -4446,7 +4446,7 @@
       <c r="A86" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B86" s="40"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="26" t="s">
         <v>309</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="A87" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="37" t="s">
         <v>384</v>
       </c>
       <c r="C87" s="15" t="s">
@@ -4690,7 +4690,7 @@
       <c r="A97" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="37" t="s">
         <v>289</v>
       </c>
       <c r="C97" s="34" t="s">
@@ -4978,7 +4978,7 @@
       <c r="A110" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="40" t="s">
         <v>290</v>
       </c>
       <c r="C110" s="15" t="s">
@@ -5002,7 +5002,7 @@
       <c r="A111" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B111" s="42"/>
+      <c r="B111" s="41"/>
       <c r="C111" s="8" t="s">
         <v>192</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="A112" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B112" s="42"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="8" t="s">
         <v>194</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="A113" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B113" s="42"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="8" t="s">
         <v>196</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="A114" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B114" s="42"/>
+      <c r="B114" s="41"/>
       <c r="C114" s="8" t="s">
         <v>198</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="A115" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B115" s="42"/>
+      <c r="B115" s="41"/>
       <c r="C115" s="8" t="s">
         <v>200</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="A116" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B116" s="42"/>
+      <c r="B116" s="41"/>
       <c r="C116" s="8" t="s">
         <v>202</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="A117" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B117" s="42"/>
+      <c r="B117" s="41"/>
       <c r="C117" s="8" t="s">
         <v>397</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="A118" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B118" s="42"/>
+      <c r="B118" s="41"/>
       <c r="C118" s="8" t="s">
         <v>204</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="A119" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="B119" s="43"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="26" t="s">
         <v>208</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="A36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="8" t="s">
         <v>103</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="A49" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="41"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="8" t="s">
         <v>127</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="A66" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="41"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="8" t="s">
         <v>212</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="A72" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B72" s="41"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="8" t="s">
         <v>225</v>
       </c>
